--- a/upload/excel a json.xlsx
+++ b/upload/excel a json.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="j" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="vvv" sheetId="2" r:id="rId2"/>
+    <sheet name="vvvvds" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,14 +54,46 @@
   </si>
   <si>
     <t>No. de acuerdo</t>
+  </si>
+  <si>
+    <t>hello8</t>
+  </si>
+  <si>
+    <t>hello9</t>
+  </si>
+  <si>
+    <t>hello10</t>
+  </si>
+  <si>
+    <t>hello11</t>
+  </si>
+  <si>
+    <t>hello12</t>
+  </si>
+  <si>
+    <t>hello13</t>
+  </si>
+  <si>
+    <t>hello14</t>
+  </si>
+  <si>
+    <t>nnn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,16 +136,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -120,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,175 +460,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:I19"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A10:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>89</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
         <v>40065</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>90</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
         <v>40066</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>91</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
         <v>40067</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>92</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
         <v>40068</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>93</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
         <v>40069</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>94</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
         <v>40070</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>95</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
         <v>40071</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>96</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
         <v>40072</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -597,6 +638,17 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -605,178 +657,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="B4:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B12" sqref="B4:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>89</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
         <v>40065</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>90</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
         <v>40066</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>91</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>40067</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>92</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
         <v>40068</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>93</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
         <v>40069</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>94</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
         <v>40070</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>95</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
         <v>40071</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>96</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
         <v>40072</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -786,6 +821,24 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -793,14 +846,195 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="B6:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>96</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
+        <v>40072</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>40073</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>98</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>40074</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>40075</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
+        <v>40076</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8">
+        <v>40077</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8">
+        <v>40078</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>103</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
+        <v>40079</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/upload/excel a json.xlsx
+++ b/upload/excel a json.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="j" sheetId="1" r:id="rId1"/>
-    <sheet name="vvv" sheetId="2" r:id="rId2"/>
-    <sheet name="vvvvds" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -77,23 +72,15 @@
     <t>hello14</t>
   </si>
   <si>
-    <t>nnn</t>
+    <t>hello15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,11 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -149,12 +134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,9 +144,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -216,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,165 +436,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A10:J19"/>
+  <dimension ref="A10:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>89</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>40065</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>90</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
         <v>40066</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>91</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <v>40067</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>92</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
         <v>40068</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>93</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
         <v>40069</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>94</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
         <v>40070</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>95</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
         <v>40071</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>96</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
         <v>40072</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -657,158 +629,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
   <dimension ref="B4:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B4:I12"/>
+      <selection activeCell="B4" sqref="B4:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>89</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
         <v>40065</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>90</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
         <v>40066</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>91</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
         <v>40067</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>92</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
         <v>40068</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>93</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
         <v>40069</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>94</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
         <v>40070</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>95</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>40071</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>96</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>40072</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -846,195 +817,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="B6:K14"/>
+  <dimension ref="B9:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>96</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
-        <v>40072</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>97</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
         <v>40073</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>98</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>40074</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>99</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>40075</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>100</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
         <v>40076</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>101</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <v>40077</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>102</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
         <v>40078</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>103</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
         <v>40079</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>40080</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>